--- a/python_Proyect/Resultados/Efectividad_Estimadores.xlsx
+++ b/python_Proyect/Resultados/Efectividad_Estimadores.xlsx
@@ -826,81 +826,81 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Chao1_bc_Efectividad_%</t>
+          <t>Chao1_Chao_1984_Efectividad_%</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>97.06878840853851</v>
+        <v>96.05176684697437</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Chao1_Chao_1984_Efectividad_%</t>
+          <t>Chao1_bc_Efectividad_%</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>96.84834658760161</v>
+        <v>96.23420366196468</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2nd_order_jackknife_Efectividad_%</t>
+          <t>iChao1_Chiu_et_al_2014_Efectividad_%</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>96.69912170056007</v>
+        <v>95.13020947421784</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bootstrap_Efectividad_%</t>
+          <t>ACE_Chao_Lee_1992_Efectividad_%</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>96.54888303712507</v>
+        <v>95.47438836719951</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>iChao1_Chiu_et_al_2014_Efectividad_%</t>
+          <t>ACE_1_Chao_Lee_1992_Efectividad_%</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>96.32343867726134</v>
+        <v>95.26077637532745</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ACE_Chao_Lee_1992_Efectividad_%</t>
+          <t>1st_order_jackknife_Efectividad_%</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>95.26632101709215</v>
+        <v>89.67869069111592</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ACE_1_Chao_Lee_1992_Efectividad_%</t>
+          <t>2nd_order_jackknife_Efectividad_%</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>94.98275800749866</v>
+        <v>93.53443236291361</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1st_order_jackknife_Efectividad_%</t>
+          <t>Bootstrap_Efectividad_%</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>90.04837978138093</v>
+        <v>96.09099311305738</v>
       </c>
     </row>
   </sheetData>

--- a/python_Proyect/Resultados/Efectividad_Estimadores.xlsx
+++ b/python_Proyect/Resultados/Efectividad_Estimadores.xlsx
@@ -803,7 +803,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -822,85 +822,55 @@
           <t>Efectividad_Promedio_%</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Grupo</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Chao1_Chao_1984_Efectividad_%</t>
+          <t>Chao1_bc_Efectividad_%</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>96.05176684697437</v>
+        <v>96.23420366196468</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Chao</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Chao1_bc_Efectividad_%</t>
+          <t>Bootstrap_Efectividad_%</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>96.23420366196468</v>
+        <v>96.09099311305738</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Bootstrap</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>iChao1_Chiu_et_al_2014_Efectividad_%</t>
+          <t>2nd_order_jackknife_Efectividad_%</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>95.13020947421784</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ACE_Chao_Lee_1992_Efectividad_%</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>95.47438836719951</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>ACE_1_Chao_Lee_1992_Efectividad_%</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>95.26077637532745</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>1st_order_jackknife_Efectividad_%</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>89.67869069111592</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2nd_order_jackknife_Efectividad_%</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
         <v>93.53443236291361</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Bootstrap_Efectividad_%</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>96.09099311305738</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Jackknife</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/python_Proyect/Resultados/Efectividad_Estimadores.xlsx
+++ b/python_Proyect/Resultados/Efectividad_Estimadores.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Por_Unidad" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Resumen_Efectividad" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -29,16 +28,27 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="00000000"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BFD8B8"/>
+        <bgColor rgb="00BFD8B8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -52,14 +62,34 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -433,444 +463,375 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="32" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="39" customWidth="1" min="5" max="5"/>
+    <col width="34" customWidth="1" min="6" max="6"/>
+    <col width="36" customWidth="1" min="7" max="7"/>
+    <col width="36" customWidth="1" min="8" max="8"/>
+    <col width="36" customWidth="1" min="9" max="9"/>
+    <col width="26" customWidth="1" min="10" max="10"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1" ht="18" customHeight="1">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Unidad</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Observadas_Mean</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Chao1_Chao_1984_Efectividad_%</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Chao1_bc_Efectividad_%</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>iChao1_Chiu_et_al_2014_Efectividad_%</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>ACE_Chao_Lee_1992_Efectividad_%</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>ACE_1_Chao_Lee_1992_Efectividad_%</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>1st_order_jackknife_Efectividad_%</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>2nd_order_jackknife_Efectividad_%</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>Bootstrap_Efectividad_%</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Unidad1</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="3" t="n">
         <v>95.938</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="3" t="n">
         <v>92.83184641882607</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="3" t="n">
         <v>93.47402470867922</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="3" t="n">
         <v>91.52380679812637</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="3" t="n">
         <v>90.49730219220466</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="3" t="n">
         <v>89.55705950991832</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="3" t="n">
         <v>84.18789543424275</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" s="3" t="n">
         <v>87.19416875704366</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" s="3" t="n">
         <v>91.2780458213164</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>Unidad2</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="3" t="n">
         <v>113.112</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="3" t="n">
         <v>96.46338447368646</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="3" t="n">
         <v>96.78943044906899</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="3" t="n">
         <v>95.59676137996314</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="3" t="n">
         <v>93.98587453261321</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="3" t="n">
         <v>93.60089370681452</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="3" t="n">
         <v>87.70411723656663</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="3" t="n">
         <v>98.29159352786805</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="3" t="n">
         <v>96.04847054579803</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Unidad3</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="3" t="n">
         <v>149.244</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="3" t="n">
         <v>99.48870416169481</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="3" t="n">
         <v>99.57765367601432</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="3" t="n">
         <v>99.48870416169481</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="3" t="n">
         <v>97.91435675718232</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="3" t="n">
         <v>97.86042607880294</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="3" t="n">
         <v>94.46420659535413</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="3" t="n">
         <v>100.1637583892617</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="3" t="n">
         <v>99.77907323075564</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>Unidad4</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="3" t="n">
         <v>199.686</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="3" t="n">
         <v>97.99818418275956</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="3" t="n">
         <v>98.13785477331368</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="3" t="n">
         <v>97.99818418275956</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="3" t="n">
         <v>96.33217392143337</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="3" t="n">
         <v>96.19527516571605</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="3" t="n">
         <v>91.60412499770631</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" s="3" t="n">
         <v>99.843</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5" s="3" t="n">
         <v>97.83931443590703</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>Unidad5</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="3" t="n">
         <v>235.604</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="3" t="n">
         <v>96.78232971980431</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="3" t="n">
         <v>96.96675364442287</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="3" t="n">
         <v>96.17549689149416</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="3" t="n">
         <v>95.19699706251944</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="3" t="n">
         <v>94.89906069247749</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="3" t="n">
         <v>90.27388232409153</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" s="3" t="n">
         <v>96.54951971937187</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6" s="3" t="n">
         <v>96.20611344353892</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Unidad6</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="3" t="n">
         <v>250.802</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="3" t="n">
         <v>97.89916622427629</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="3" t="n">
         <v>98.02198832969205</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="3" t="n">
         <v>97.89916622427629</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="3" t="n">
         <v>96.02392155811735</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="3" t="n">
         <v>95.8272677601892</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="3" t="n">
         <v>91.53691740574473</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7" s="3" t="n">
         <v>99.92111553784861</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7" s="3" t="n">
         <v>98.03810814072172</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>Unidad7</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="3" t="n">
         <v>273.414</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="3" t="n">
         <v>97.73616875247991</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="3" t="n">
         <v>97.86490752705106</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="3" t="n">
         <v>97.55622397533745</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="3" t="n">
         <v>96.36890411538297</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="3" t="n">
         <v>96.23593844594308</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" s="3" t="n">
         <v>91.14103803460115</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8" s="3" t="n">
         <v>100.1402771113903</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8" s="3" t="n">
         <v>97.56547007234319</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="9" ht="18" customHeight="1">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>Unidad8</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="3" t="n">
         <v>300.07</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="3" t="n">
         <v>96.38356850791284</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="3" t="n">
         <v>96.55227890663963</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="3" t="n">
         <v>95.54239500748241</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="3" t="n">
         <v>95.6029706471767</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="3" t="n">
         <v>95.40812433229893</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9" s="3" t="n">
         <v>89.84454531300526</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9" s="3" t="n">
         <v>94.65422989934294</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9" s="3" t="n">
         <v>96.09435853068724</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="10" ht="18" customHeight="1">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Unidad9</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="3" t="n">
         <v>304</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="3" t="n">
         <v>96.05176684697437</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="3" t="n">
         <v>96.23420366196468</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="3" t="n">
         <v>95.13020947421784</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="3" t="n">
         <v>95.47438836719951</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="3" t="n">
         <v>95.26077637532745</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" s="3" t="n">
         <v>89.67869069111592</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10" s="3" t="n">
         <v>93.53443236291361</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10" s="3" t="n">
         <v>96.09099311305738</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Estimador</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Efectividad_Promedio_%</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Grupo</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Chao1_bc_Efectividad_%</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>96.23420366196468</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Chao</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Bootstrap_Efectividad_%</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>96.09099311305738</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Bootstrap</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2nd_order_jackknife_Efectividad_%</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>93.53443236291361</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Jackknife</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/python_Proyect/Resultados/Efectividad_Estimadores.xlsx
+++ b/python_Proyect/Resultados/Efectividad_Estimadores.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -535,31 +535,31 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>95.938</v>
+        <v>96.11799999999999</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>92.83184641882607</v>
+        <v>93.00601861707274</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>93.47402470867922</v>
+        <v>93.64940176935967</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>91.52380679812637</v>
+        <v>91.69552483710636</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>90.49730219220466</v>
+        <v>90.66709429121231</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>89.55705950991832</v>
+        <v>89.72508751458575</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>84.18789543424275</v>
+        <v>84.34584975034443</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>87.19416875704366</v>
+        <v>87.35776347838731</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>91.2780458213164</v>
+        <v>92.09293992132845</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
@@ -569,31 +569,31 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>113.112</v>
+        <v>113.489</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>96.46338447368646</v>
+        <v>96.78489497607859</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>96.78943044906899</v>
+        <v>97.11202765607887</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>95.59676137996314</v>
+        <v>95.91538344517502</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>93.98587453261321</v>
+        <v>94.29912754466142</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>93.60089370681452</v>
+        <v>93.91286358558484</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>87.70411723656663</v>
+        <v>87.99643327905716</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>98.29159352786805</v>
+        <v>98.61919741392795</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>96.04847054579803</v>
+        <v>95.95098331812906</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
@@ -603,31 +603,31 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>149.244</v>
+        <v>149.417</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>99.48870416169481</v>
+        <v>99.60402903787056</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>99.57765367601432</v>
+        <v>99.69308166029477</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>99.48870416169481</v>
+        <v>99.60402903787056</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>97.91435675718232</v>
+        <v>98.02785668829507</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>97.86042607880294</v>
+        <v>97.97386349479041</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>94.46420659535413</v>
+        <v>94.57370719665801</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>100.1637583892617</v>
+        <v>100.2798657718121</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>99.77907323075564</v>
+        <v>99.73204234858923</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
@@ -637,31 +637,31 @@
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>199.686</v>
+        <v>199.8</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>97.99818418275956</v>
+        <v>98.05413098422203</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>98.13785477331368</v>
+        <v>98.19388131220053</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>97.99818418275956</v>
+        <v>98.05413098422203</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>96.33217392143337</v>
+        <v>96.38716960378989</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>96.19527516571605</v>
+        <v>96.25019269307847</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>91.60412499770631</v>
+        <v>91.65642145439199</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>99.843</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>97.83931443590703</v>
+        <v>97.69274000167614</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>235.604</v>
+        <v>236.156</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>96.78232971980431</v>
+        <v>97.00908243200499</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>96.96675364442287</v>
+        <v>97.19393844608889</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>96.17549689149416</v>
+        <v>96.40082784633408</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>95.19699706251944</v>
+        <v>95.42003547603751</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>94.89906069247749</v>
+        <v>95.12140106658933</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>90.27388232409153</v>
+        <v>90.48538630128589</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>96.54951971937187</v>
+        <v>96.77572697767432</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>96.20611344353892</v>
+        <v>97.27338687936243</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1">
@@ -705,31 +705,31 @@
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>250.802</v>
+        <v>250.997</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>97.89916622427629</v>
+        <v>97.97528339006338</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>98.02198832969205</v>
+        <v>98.09820099037377</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>97.89916622427629</v>
+        <v>97.97528339006338</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>96.02392155811735</v>
+        <v>96.09858071037226</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>95.8272677601892</v>
+        <v>95.90177401298318</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>91.53691740574473</v>
+        <v>91.60808788641921</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>99.92111553784861</v>
+        <v>99.9988047808765</v>
       </c>
       <c r="J7" s="3" t="n">
-        <v>98.03810814072172</v>
+        <v>97.65458886732162</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1">
@@ -739,31 +739,31 @@
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>273.414</v>
+        <v>273.343</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>97.73616875247991</v>
+        <v>97.71078867691165</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>97.86490752705106</v>
+        <v>97.83949402066726</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>97.55622397533745</v>
+        <v>97.53089062773182</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>96.36890411538297</v>
+        <v>96.34387909035796</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>96.23593844594308</v>
+        <v>96.21094794937137</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>91.14103803460115</v>
+        <v>91.11737057901931</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>100.1402771113903</v>
+        <v>100.1142727382605</v>
       </c>
       <c r="J8" s="3" t="n">
-        <v>97.56547007234319</v>
+        <v>97.80704442729065</v>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1">
@@ -773,31 +773,31 @@
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>300.07</v>
+        <v>299.987</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>96.38356850791284</v>
+        <v>96.35690860793567</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>96.55227890663963</v>
+        <v>96.52557234100745</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>95.54239500748241</v>
+        <v>95.51596777788393</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>95.6029706471767</v>
+        <v>95.57652666222749</v>
       </c>
       <c r="G9" s="3" t="n">
-        <v>95.40812433229893</v>
+        <v>95.38173424225468</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>89.84454531300526</v>
+        <v>89.81969412074686</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>94.65422989934294</v>
+        <v>94.62804833810175</v>
       </c>
       <c r="J9" s="3" t="n">
-        <v>96.09435853068724</v>
+        <v>96.28266992501342</v>
       </c>
     </row>
     <row r="10" ht="18" customHeight="1">
@@ -831,7 +831,7 @@
         <v>93.53443236291361</v>
       </c>
       <c r="J10" s="3" t="n">
-        <v>96.09099311305738</v>
+        <v>95.75440104866189</v>
       </c>
     </row>
   </sheetData>

--- a/python_Proyect/Resultados/Efectividad_Estimadores.xlsx
+++ b/python_Proyect/Resultados/Efectividad_Estimadores.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -535,31 +535,31 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>96.11799999999999</v>
+        <v>95.999</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>93.00601861707274</v>
+        <v>92.89087144156521</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>93.64940176935967</v>
+        <v>93.53345804590981</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>91.69552483710636</v>
+        <v>91.58200013355847</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>90.66709429121231</v>
+        <v>90.55484284797947</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>89.72508751458575</v>
+        <v>89.61400233372228</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>84.34584975034443</v>
+        <v>84.24142439692164</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>87.35776347838731</v>
+        <v>87.24960919038789</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>92.09293992132845</v>
+        <v>92.50645576516837</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
@@ -569,31 +569,31 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>113.489</v>
+        <v>113.6</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>96.78489497607859</v>
+        <v>96.87955721948848</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>97.11202765607887</v>
+        <v>97.20700985761226</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>95.91538344517502</v>
+        <v>96.0091952468687</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>94.29912754466142</v>
+        <v>94.39135853759866</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>93.91286358558484</v>
+        <v>94.00471678596548</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>87.99643327905716</v>
+        <v>88.08249980615646</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>98.61919741392795</v>
+        <v>98.71565373051321</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>95.95098331812906</v>
+        <v>95.85752062160226</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
@@ -603,31 +603,31 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>149.417</v>
+        <v>148.468</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>99.60402903787056</v>
+        <v>98.97140876335735</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>99.69308166029477</v>
+        <v>99.05989578120725</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>99.60402903787056</v>
+        <v>98.97140876335735</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>98.02785668829507</v>
+        <v>97.40524723958983</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>97.97386349479041</v>
+        <v>97.3515969758765</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>94.57370719665801</v>
+        <v>93.97303626811822</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>100.2798657718121</v>
+        <v>99.64295302013421</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>99.73204234858923</v>
+        <v>98.12419463814473</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
@@ -637,31 +637,31 @@
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>199.8</v>
+        <v>199.728</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>98.05413098422203</v>
+        <v>98.01879616224574</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>98.19388131220053</v>
+        <v>98.15849612974567</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>98.05413098422203</v>
+        <v>98.01879616224574</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>96.38716960378989</v>
+        <v>96.35243548861735</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>96.25019269307847</v>
+        <v>96.21550793895483</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>91.65642145439199</v>
+        <v>91.62339211332734</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>99.90000000000001</v>
+        <v>99.864</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>97.69274000167614</v>
+        <v>98.02250991964557</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>236.156</v>
+        <v>236.01</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>97.00908243200499</v>
+        <v>96.94910798276349</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>97.19393844608889</v>
+        <v>97.1338497123149</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>96.40082784633408</v>
+        <v>96.34122944161192</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>95.42003547603751</v>
+        <v>95.36104343188236</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>95.12140106658933</v>
+        <v>95.06259364879888</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>90.48538630128589</v>
+        <v>90.4294450319555</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>96.77572697767432</v>
+        <v>96.71589679703635</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>97.27338687936243</v>
+        <v>97.18116560574859</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1">
@@ -705,31 +705,31 @@
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>250.997</v>
+        <v>251.176</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>97.97528339006338</v>
+        <v>98.04515504481152</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>98.09820099037377</v>
+        <v>98.16816030453796</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>97.97528339006338</v>
+        <v>98.04515504481152</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>96.09858071037226</v>
+        <v>96.16711398346777</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>95.90177401298318</v>
+        <v>95.97016693221458</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>91.60808788641921</v>
+        <v>91.67341873791014</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>99.9988047808765</v>
+        <v>100.0701195219123</v>
       </c>
       <c r="J7" s="3" t="n">
-        <v>97.65458886732162</v>
+        <v>97.40811107819482</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1">
@@ -739,31 +739,31 @@
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>273.343</v>
+        <v>272.405</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>97.71078867691165</v>
+        <v>97.37548570672784</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>97.83949402066726</v>
+        <v>97.50374938703337</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>97.53089062773182</v>
+        <v>97.19620499316713</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>96.34387909035796</v>
+        <v>96.01326678791466</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>96.21094794937137</v>
+        <v>95.88079181156461</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>91.11737057901931</v>
+        <v>90.80469348978298</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>100.1142727382605</v>
+        <v>99.77072200592606</v>
       </c>
       <c r="J8" s="3" t="n">
-        <v>97.80704442729065</v>
+        <v>97.08111594904047</v>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1">
@@ -773,31 +773,31 @@
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>299.987</v>
+        <v>300.038</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>96.35690860793567</v>
+        <v>96.37328999225899</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>96.52557234100745</v>
+        <v>96.54198239940794</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>95.51596777788393</v>
+        <v>95.53220619607094</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>95.57652666222749</v>
+        <v>95.59277537587099</v>
       </c>
       <c r="G9" s="3" t="n">
-        <v>95.38173424225468</v>
+        <v>95.39794983975175</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>89.81969412074686</v>
+        <v>89.8349641304478</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>94.62804833810175</v>
+        <v>94.64413580344272</v>
       </c>
       <c r="J9" s="3" t="n">
-        <v>96.28266992501342</v>
+        <v>96.30147428192031</v>
       </c>
     </row>
     <row r="10" ht="18" customHeight="1">
@@ -831,7 +831,7 @@
         <v>93.53443236291361</v>
       </c>
       <c r="J10" s="3" t="n">
-        <v>95.75440104866189</v>
+        <v>96.05897515500965</v>
       </c>
     </row>
   </sheetData>

--- a/python_Proyect/Resultados/Efectividad_Estimadores.xlsx
+++ b/python_Proyect/Resultados/Efectividad_Estimadores.xlsx
@@ -535,31 +535,31 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>95.999</v>
+        <v>96.199</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>92.89087144156521</v>
+        <v>93.08439610628373</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>93.53345804590981</v>
+        <v>93.72832144666589</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>91.58200013355847</v>
+        <v>91.77279795464737</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>90.55484284797947</v>
+        <v>90.74350073576576</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>89.61400233372228</v>
+        <v>89.80070011668612</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>84.24142439692164</v>
+        <v>84.41692919259019</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>87.24960919038789</v>
+        <v>87.43138110299196</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>92.50645576516837</v>
+        <v>92.26855338956659</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
@@ -569,31 +569,31 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>113.6</v>
+        <v>112.709</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>96.87955721948848</v>
+        <v>96.11970083319831</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>97.20700985761226</v>
+        <v>96.44458515881709</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>96.0091952468687</v>
+        <v>95.25616537921941</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>94.39135853759866</v>
+        <v>93.65101786456171</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>94.00471678596548</v>
+        <v>93.26740866399106</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>88.08249980615646</v>
+        <v>87.39164146700783</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>98.71565373051321</v>
+        <v>97.94139627035577</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>95.85752062160226</v>
+        <v>95.80603674339888</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
@@ -603,31 +603,31 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>148.468</v>
+        <v>148.923</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>98.97140876335735</v>
+        <v>99.27471985387739</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>99.05989578120725</v>
+        <v>99.36347805200263</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>98.97140876335735</v>
+        <v>99.27471985387739</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>97.40524723958983</v>
+        <v>97.70375861910604</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>97.3515969758765</v>
+        <v>97.64994393699961</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>93.97303626811822</v>
+        <v>94.26102917906196</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>99.64295302013421</v>
+        <v>99.948322147651</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>98.12419463814473</v>
+        <v>99.07226401707584</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
@@ -637,31 +637,31 @@
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>199.728</v>
+        <v>200.016</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>98.01879616224574</v>
+        <v>98.1601354501509</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>98.15849612974567</v>
+        <v>98.30003685956505</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>98.01879616224574</v>
+        <v>98.1601354501509</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>96.35243548861735</v>
+        <v>96.49137194930749</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>96.21550793895483</v>
+        <v>96.35424695544936</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>91.62339211332734</v>
+        <v>91.75550947758592</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>99.864</v>
+        <v>100.008</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>98.02250991964557</v>
+        <v>98.20261368915448</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>236.01</v>
+        <v>235.978</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>96.94910798276349</v>
+        <v>96.93596289799825</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>97.1338497123149</v>
+        <v>97.12067957888499</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>96.34122944161192</v>
+        <v>96.32816677756324</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>95.36104343188236</v>
+        <v>95.34811366877987</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>95.06259364879888</v>
+        <v>95.04970435174891</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>90.4294450319555</v>
+        <v>90.41718393182828</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>96.71589679703635</v>
+        <v>96.70278333278695</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>97.18116560574859</v>
+        <v>97.43101251531327</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1">
@@ -705,31 +705,31 @@
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>251.176</v>
+        <v>251.162</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>98.04515504481152</v>
+        <v>98.03969022265247</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>98.16816030453796</v>
+        <v>98.1626886263352</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>98.04515504481152</v>
+        <v>98.03969022265247</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>96.16711398346777</v>
+        <v>96.16175383920333</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>95.97016693221458</v>
+        <v>95.96481776534733</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>91.67341873791014</v>
+        <v>91.66830906237455</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>100.0701195219123</v>
+        <v>100.0645418326693</v>
       </c>
       <c r="J7" s="3" t="n">
-        <v>97.40811107819482</v>
+        <v>98.04151187270288</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1">
@@ -739,31 +739,31 @@
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>272.405</v>
+        <v>273.129</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>97.37548570672784</v>
+        <v>97.63429098435373</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>97.50374938703337</v>
+        <v>97.76289556480623</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>97.19620499316713</v>
+        <v>97.45453377720214</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>96.01326678791466</v>
+        <v>96.26845155014169</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>95.88079181156461</v>
+        <v>96.13562448083124</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>90.80469348978298</v>
+        <v>91.04603486782892</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>99.77072200592606</v>
+        <v>100.0358933600946</v>
       </c>
       <c r="J8" s="3" t="n">
-        <v>97.08111594904047</v>
+        <v>97.7988430167958</v>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1">
@@ -773,31 +773,31 @@
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>300.038</v>
+        <v>299.945</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>96.37328999225899</v>
+        <v>96.34341805613997</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>96.54198239940794</v>
+        <v>96.51205817526585</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>95.53220619607094</v>
+        <v>95.50259496290636</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>95.59277537587099</v>
+        <v>95.56314536863871</v>
       </c>
       <c r="G9" s="3" t="n">
-        <v>95.39794983975175</v>
+        <v>95.36838022078649</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>89.8349641304478</v>
+        <v>89.80711881864019</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>94.64413580344272</v>
+        <v>94.6147998372327</v>
       </c>
       <c r="J9" s="3" t="n">
-        <v>96.30147428192031</v>
+        <v>96.18332311465359</v>
       </c>
     </row>
     <row r="10" ht="18" customHeight="1">
@@ -831,7 +831,7 @@
         <v>93.53443236291361</v>
       </c>
       <c r="J10" s="3" t="n">
-        <v>96.05897515500965</v>
+        <v>95.97188629869677</v>
       </c>
     </row>
   </sheetData>
